--- a/assets/xls/items_import.xlsx
+++ b/assets/xls/items_import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Quy cách</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>Trọng lượng</t>
+  </si>
+  <si>
+    <t>Mã nguyên vật liệu</t>
+  </si>
+  <si>
+    <t>BT3</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Bao trắng</t>
   </si>
 </sst>
 </file>
@@ -865,63 +877,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
     <col min="13" max="13" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>200</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
     </row>

--- a/assets/xls/items_import.xlsx
+++ b/assets/xls/items_import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Quy cách</t>
   </si>
@@ -25,12 +25,6 @@
     <t>Bao trắng 2</t>
   </si>
   <si>
-    <t>Tên nguyên vật liệu</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
     <t>Giá</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
     <t>Trọng lượng</t>
   </si>
   <si>
-    <t>Mã nguyên vật liệu</t>
-  </si>
-  <si>
     <t>BT3</t>
   </si>
   <si>
@@ -56,6 +47,21 @@
   </si>
   <si>
     <t>Bao trắng</t>
+  </si>
+  <si>
+    <t>Đơn vị*</t>
+  </si>
+  <si>
+    <t>Tên nguyên vật liệu*</t>
+  </si>
+  <si>
+    <t>Mã nguyên vật liệu*</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>QQQ</t>
   </si>
 </sst>
 </file>
@@ -540,8 +546,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -877,50 +884,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="13" max="13" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -932,7 +939,7 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>200</v>
@@ -946,10 +953,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -958,7 +965,7 @@
         <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -968,9 +975,36 @@
       </c>
       <c r="H3">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/xls/items_import.xlsx
+++ b/assets/xls/items_import.xlsx
@@ -22,9 +22,6 @@
     <t>Bao</t>
   </si>
   <si>
-    <t>Bao trắng 2</t>
-  </si>
-  <si>
     <t>Giá</t>
   </si>
   <si>
@@ -40,15 +37,6 @@
     <t>Trọng lượng</t>
   </si>
   <si>
-    <t>BT3</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>Bao trắng</t>
-  </si>
-  <si>
     <t>Đơn vị*</t>
   </si>
   <si>
@@ -58,10 +46,22 @@
     <t>Mã nguyên vật liệu*</t>
   </si>
   <si>
-    <t>QQ</t>
-  </si>
-  <si>
-    <t>QQQ</t>
+    <t>HKM</t>
+  </si>
+  <si>
+    <t>Hạt không màu</t>
+  </si>
+  <si>
+    <t>BTP</t>
+  </si>
+  <si>
+    <t>Bao trắng Pro</t>
+  </si>
+  <si>
+    <t>SXP</t>
+  </si>
+  <si>
+    <t>Sơn xanh Pro</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -901,36 +901,36 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>200</v>
@@ -953,10 +953,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -991,7 +991,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>2</v>
